--- a/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:12+00:00</t>
+    <t>2023-02-06T06:48:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T06:48:27+00:00</t>
+    <t>2023-02-06T11:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1407,7 +1407,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-organization)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-target-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:47:33+00:00</t>
+    <t>2023-02-06T11:48:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
